--- a/xlsx/北大西洋公约_intext.xlsx
+++ b/xlsx/北大西洋公约_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>北大西洋公约</t>
   </si>
@@ -29,7 +29,7 @@
     <t>军事同盟</t>
   </si>
   <si>
-    <t>政策_政策_美國_北大西洋公约</t>
+    <t>政策_政策_美国_北大西洋公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -95,9 +95,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
@@ -119,7 +116,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
@@ -131,13 +128,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -149,19 +146,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -173,9 +170,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
   </si>
   <si>
@@ -185,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -197,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -209,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -227,9 +221,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
   </si>
   <si>
@@ -245,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -311,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>Template talk-北大西洋公約組織</t>
+    <t>Template talk-北大西洋公约组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NATO_summit</t>
@@ -329,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
   </si>
   <si>
-    <t>北約擴張</t>
+    <t>北约扩张</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/North_Atlantic_Council</t>
@@ -359,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>北約秘書長</t>
+    <t>北约秘书长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chairman_of_the_NATO_Military_Committee</t>
@@ -389,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>丹麥國防軍</t>
+    <t>丹麦国防军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Estonia_Defence_Forces</t>
@@ -407,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>希臘軍隊</t>
+    <t>希腊军队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Military_of_Iceland</t>
@@ -437,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>波蘭軍事</t>
+    <t>波兰军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A%E6%AD%A6%E8%A3%85%E9%83%A8%E9%98%9F</t>
@@ -485,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
   </si>
   <si>
-    <t>主要非北約盟友</t>
+    <t>主要非北约盟友</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mediterranean_Dialogue</t>
@@ -509,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1225,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -1260,10 +1251,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -1289,10 +1280,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -1318,10 +1309,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -1347,10 +1338,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
@@ -1376,10 +1367,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1405,10 +1396,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -1434,10 +1425,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1463,10 +1454,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>5</v>
@@ -1492,10 +1483,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -1521,10 +1512,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
@@ -1550,10 +1541,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -1579,10 +1570,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -1608,10 +1599,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1637,10 +1628,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -1666,10 +1657,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
@@ -1695,10 +1686,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -1724,10 +1715,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -1753,10 +1744,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>5</v>
@@ -1782,10 +1773,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -1811,10 +1802,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>5</v>
@@ -1840,10 +1831,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>9</v>
@@ -1898,10 +1889,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -1927,10 +1918,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1956,10 +1947,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G38" t="n">
         <v>22</v>
@@ -1985,10 +1976,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2014,10 +2005,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G40" t="n">
         <v>6</v>
@@ -2043,10 +2034,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2072,10 +2063,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2101,10 +2092,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2130,10 +2121,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2159,10 +2150,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2188,10 +2179,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2217,10 +2208,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2246,10 +2237,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2275,10 +2266,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2304,10 +2295,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -2333,10 +2324,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2362,10 +2353,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2391,10 +2382,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2420,10 +2411,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2449,10 +2440,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2478,10 +2469,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2507,10 +2498,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2536,10 +2527,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2565,10 +2556,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2594,10 +2585,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2623,10 +2614,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2652,10 +2643,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2681,10 +2672,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2710,10 +2701,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2739,10 +2730,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2768,10 +2759,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2797,10 +2788,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2826,10 +2817,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2855,10 +2846,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2884,10 +2875,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2913,10 +2904,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2942,10 +2933,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2971,10 +2962,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3000,10 +2991,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3029,10 +3020,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3058,10 +3049,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3087,10 +3078,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3116,10 +3107,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3145,10 +3136,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3174,10 +3165,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3203,10 +3194,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3232,10 +3223,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3261,10 +3252,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3290,10 +3281,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
